--- a/predict/pred_result_with_ad/test/tg413_vapour_morgan_mdTrue_rf.xlsx
+++ b/predict/pred_result_with_ad/test/tg413_vapour_morgan_mdTrue_rf.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.798447911281328</v>
+        <v>3.798776718570296</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>189388.6380996013</v>
+        <v>189369.9605989324</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.882862415142447</v>
+        <v>3.883921292119449</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>246112.0256470603</v>
+        <v>246095.964782614</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.65967046690776</v>
+        <v>2.661120548809925</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>148543.2372884097</v>
+        <v>148546.8309291643</v>
       </c>
     </row>
     <row r="5">
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.15084306588524</v>
+        <v>3.154468474600041</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>163548.701740389</v>
+        <v>163562.5714163219</v>
       </c>
     </row>
     <row r="6">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.163480312786664</v>
+        <v>3.165479363155448</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>149124.2548955977</v>
+        <v>149173.9985350703</v>
       </c>
     </row>
     <row r="7">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4.973925222491492</v>
+        <v>4.978470628942982</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>59404.05590078254</v>
+        <v>59458.81862234158</v>
       </c>
     </row>
     <row r="8">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.149673280955738</v>
+        <v>4.154600977026532</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>172954.5012879344</v>
+        <v>173008.9407868603</v>
       </c>
     </row>
     <row r="9">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.499862504818149</v>
+        <v>3.501204441309293</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>92601.72093108702</v>
+        <v>92611.61172727658</v>
       </c>
     </row>
     <row r="10">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.540789321768473</v>
+        <v>3.545530102145414</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>220904.6080356192</v>
+        <v>221057.7814080062</v>
       </c>
     </row>
     <row r="11">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4.239247329748163</v>
+        <v>4.243290116862294</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>228748.2153354131</v>
+        <v>228749.248628849</v>
       </c>
     </row>
     <row r="12">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.668761147369222</v>
+        <v>4.68510068532512</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2069.949892956807</v>
+        <v>2094.093670764758</v>
       </c>
     </row>
     <row r="13">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.802332012176144</v>
+        <v>2.802434652736748</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>148768.5108367827</v>
+        <v>148879.6955143459</v>
       </c>
     </row>
     <row r="14">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.884304637222266</v>
+        <v>2.896397235486132</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>121920.0653333919</v>
+        <v>121860.6139918922</v>
       </c>
     </row>
     <row r="15">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3.722744414321746</v>
+        <v>3.726918697299634</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>23.35579593333263</v>
+        <v>65.253467969201</v>
       </c>
     </row>
     <row r="16">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.193496352203399</v>
+        <v>3.194796720306111</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>183568.5986321606</v>
+        <v>183593.8760182086</v>
       </c>
     </row>
     <row r="17">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.513515651851568</v>
+        <v>2.531476089626826</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>84268.22262756976</v>
+        <v>84292.98304839667</v>
       </c>
     </row>
     <row r="18">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3.929010523794916</v>
+        <v>3.92945923069496</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>158020.3014517854</v>
+        <v>158048.7578118226</v>
       </c>
     </row>
     <row r="19">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.689426950618414</v>
+        <v>3.691070516336016</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>193882.8335123882</v>
+        <v>193925.7051378813</v>
       </c>
     </row>
     <row r="20">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.821708451139649</v>
+        <v>3.82299955268722</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>131455.2502359824</v>
+        <v>131492.1989263828</v>
       </c>
     </row>
     <row r="21">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6.08411021424971</v>
+        <v>6.100241792377449</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>416583.7238174629</v>
+        <v>416622.2182550364</v>
       </c>
     </row>
     <row r="22">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.600513499762657</v>
+        <v>2.614825429295911</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>121789.0016105815</v>
+        <v>121889.4997114358</v>
       </c>
     </row>
     <row r="23">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.127165279645553</v>
+        <v>4.139565501349591</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>11.83911052131604</v>
+        <v>11.84539955385681</v>
       </c>
     </row>
     <row r="24">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.92551407157464</v>
+        <v>3.92836284882161</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>169304.7385167111</v>
+        <v>169221.185441431</v>
       </c>
     </row>
     <row r="25">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.766523744168094</v>
+        <v>3.76810019747114</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>157895.8615398606</v>
+        <v>157840.9023745749</v>
       </c>
     </row>
     <row r="26">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.864350968086031</v>
+        <v>3.890329931504979</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>39.87112574600545</v>
+        <v>39.96974851112248</v>
       </c>
     </row>
     <row r="27">
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5.397283064469286</v>
+        <v>5.420635884592131</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>281915.3430913368</v>
+        <v>281968.7024511377</v>
       </c>
     </row>
     <row r="28">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.268722575477432</v>
+        <v>3.282858267473691</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>191426.1440371179</v>
+        <v>191493.9041945802</v>
       </c>
     </row>
     <row r="29">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.907042702359037</v>
+        <v>3.967353291416504</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>271671.1163195774</v>
+        <v>272200.4130224817</v>
       </c>
     </row>
     <row r="30">
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3.091425298630113</v>
+        <v>3.107429280314971</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>159310.9452046522</v>
+        <v>159702.6859036855</v>
       </c>
     </row>
     <row r="31">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.315386681169026</v>
+        <v>4.329329312501581</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>15.07296123356879</v>
+        <v>15.08482610312191</v>
       </c>
     </row>
     <row r="32">
@@ -1347,10 +1347,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4.985996935985181</v>
+        <v>4.992305063590144</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>311313.8395575214</v>
+        <v>311211.6480591965</v>
       </c>
     </row>
     <row r="33">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4.116977206491764</v>
+        <v>4.117964826787841</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>170302.2620729453</v>
+        <v>170306.446808523</v>
       </c>
     </row>
     <row r="34">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.238374517413092</v>
+        <v>4.251794288116126</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>154602.9916519116</v>
+        <v>154542.7738520307</v>
       </c>
     </row>
     <row r="35">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.036139765490102</v>
+        <v>5.039547556946498</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>345443.7434442282</v>
+        <v>345514.2950936173</v>
       </c>
     </row>
     <row r="36">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.439351553151428</v>
+        <v>3.441746782903391</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>122853.9455578986</v>
+        <v>122852.1111181915</v>
       </c>
     </row>
     <row r="37">
@@ -1492,10 +1492,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.985951581877002</v>
+        <v>3.987935890655796</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>160617.1947343104</v>
+        <v>160644.9930925692</v>
       </c>
     </row>
     <row r="38">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.410103068112319</v>
+        <v>4.414544266992921</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>283606.0258644857</v>
+        <v>283666.4401957902</v>
       </c>
     </row>
     <row r="39">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.231899592614466</v>
+        <v>2.250337674998061</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>108622.415969474</v>
+        <v>108611.2509965717</v>
       </c>
     </row>
     <row r="40">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3.666150977545819</v>
+        <v>3.679685016779544</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>226689.9812358845</v>
+        <v>226532.6129584858</v>
       </c>
     </row>
     <row r="41">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.091615061410847</v>
+        <v>3.093249305977933</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>149844.417656515</v>
+        <v>149885.6731907076</v>
       </c>
     </row>
     <row r="42">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.49217707814989</v>
+        <v>2.505387095979453</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>102691.1306844555</v>
+        <v>102910.5295385292</v>
       </c>
     </row>
     <row r="43">
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.055132401213444</v>
+        <v>3.063525329108127</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>90828.2456635353</v>
+        <v>90950.27980757754</v>
       </c>
     </row>
     <row r="44">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.553816710019157</v>
+        <v>3.553978420984771</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>203436.45749305</v>
+        <v>203567.6380914712</v>
       </c>
     </row>
     <row r="45">
@@ -1724,10 +1724,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4.861456114925476</v>
+        <v>4.865643511222391</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>279505.4540578116</v>
+        <v>279460.6342682537</v>
       </c>
     </row>
     <row r="46">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.337083804519255</v>
+        <v>5.352567497226739</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4079.674574936812</v>
+        <v>4112.767446979033</v>
       </c>
     </row>
     <row r="47">
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3.63490063231251</v>
+        <v>3.637439309436576</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>239386.2732837446</v>
+        <v>239450.3077583622</v>
       </c>
     </row>
     <row r="48">
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.006072460246765</v>
+        <v>4.007908705950697</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>188497.617179976</v>
+        <v>188574.4153505436</v>
       </c>
     </row>
     <row r="49">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6.145634915242352</v>
+        <v>6.178943652900463</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>393465.2368180024</v>
+        <v>393602.692473137</v>
       </c>
     </row>
   </sheetData>
